--- a/BOM_openfield.xlsx
+++ b/BOM_openfield.xlsx
@@ -1,22 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://universityofsussex-my.sharepoint.com/personal/snn30_sussex_ac_uk/Documents/Devs/open-field/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{15AC714F-98EA-46D5-A2CC-A9969ABAB735}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="18" documentId="8_{15AC714F-98EA-46D5-A2CC-A9969ABAB735}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EA90D864-1710-4985-B18F-1A65FD6F06B0}"/>
   <bookViews>
-    <workbookView xWindow="2280" yWindow="1920" windowWidth="21600" windowHeight="11385" xr2:uid="{FF5020C0-267D-405D-A737-1BBF40D809E4}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{FF5020C0-267D-405D-A737-1BBF40D809E4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>No.</t>
   </si>
@@ -57,12 +56,6 @@
     <t>https://uk.rs-online.com/web/p/hex-nuts/0525903?gb=s</t>
   </si>
   <si>
-    <t>M4X12mm machine screw</t>
-  </si>
-  <si>
-    <t>https://uk.rs-online.com/web/p/machine-screws/0560697?gb=s</t>
-  </si>
-  <si>
     <t>https://uk.rs-online.com/web/p/hex-nuts/0525896?gb=s</t>
   </si>
   <si>
@@ -78,12 +71,6 @@
     <t>M3 nut</t>
   </si>
   <si>
-    <t>M3X6mm machine screw</t>
-  </si>
-  <si>
-    <t>https://uk.rs-online.com/web/p/sems-screws/0278821?gb=s</t>
-  </si>
-  <si>
     <t>https://uk.rs-online.com/web/p/hex-nuts/0560293?gb=s</t>
   </si>
   <si>
@@ -97,6 +84,24 @@
   </si>
   <si>
     <t>https://www.technobotsonline.com/makerbeamxl-500mm-long-black-anodised-beam-threaded.html</t>
+  </si>
+  <si>
+    <t>M4X16mm machine screw</t>
+  </si>
+  <si>
+    <t>https://uk.rs-online.com/web/p/socket-screws/0171837?gb=s</t>
+  </si>
+  <si>
+    <t>https://uk.rs-online.com/web/p/machine-screws/0528693?gb=s</t>
+  </si>
+  <si>
+    <t>M3X8mm machine screw</t>
+  </si>
+  <si>
+    <t>https://uk.rs-online.com/web/p/sems-screws/6934801?gb=s</t>
+  </si>
+  <si>
+    <t>M2X6mm machine screw</t>
   </si>
 </sst>
 </file>
@@ -479,10 +484,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FB510F0-AAEC-4036-AF29-A7227928E7D3}">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -510,13 +515,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C2">
         <v>40</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -540,13 +545,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="C4">
         <v>25</v>
       </c>
-      <c r="D4" t="s">
-        <v>7</v>
+      <c r="D4" s="1" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -555,13 +560,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C5">
         <v>25</v>
       </c>
-      <c r="D5" t="s">
-        <v>8</v>
+      <c r="D5" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -570,13 +575,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="C6">
         <v>10</v>
       </c>
-      <c r="D6" t="s">
-        <v>14</v>
+      <c r="D6" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -585,13 +590,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C7">
         <v>10</v>
       </c>
       <c r="D7" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -600,13 +605,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C8">
         <v>1</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -615,16 +620,36 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C9">
         <v>1</v>
       </c>
       <c r="D9" t="s">
-        <v>19</v>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10">
+        <v>2</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D5" r:id="rId1" xr:uid="{B1752E16-7D7D-4153-955A-7A6E1EC6A77B}"/>
+    <hyperlink ref="D6" r:id="rId2" xr:uid="{D176E82F-C7D1-4E5A-8D34-3E8C9057DA3C}"/>
+    <hyperlink ref="D4" r:id="rId3" xr:uid="{BD11CF1F-5CF7-4F3B-B589-061434530837}"/>
+    <hyperlink ref="D10" r:id="rId4" xr:uid="{1B86FBD3-C7CD-4A7F-B28F-BC5BCBFFCCA0}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>